--- a/biology/Zoologie/Gymnophthalmidae/Gymnophthalmidae.xlsx
+++ b/biology/Zoologie/Gymnophthalmidae/Gymnophthalmidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gymnophthalmidae sont une famille de sauriens[1]. La catégorie a été créée par Blasius Merrem en 1820.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gymnophthalmidae sont une famille de sauriens. La catégorie a été créée par Blasius Merrem en 1820.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique centrale et en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique centrale et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles atteignant au maximum une dizaine de centimètres de long, avec de petites pattes, quasiment atrophiées chez certaines espèces dans le genre Bachia voire absentes dans le genre Calyptommatus. Ce sont des animaux globalement diurnes, insectivores et ovipares, et quelques espèces sont parthénogeniques, dans le genre Gymnophthalmus en particulier.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 décembre 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 décembre 2015) :
 Alopoglossinae Pellegrino, Rodrigues, Yonenaga-Yassuda &amp; Sites, 2001
 Alopoglossus Boulenger, 1885
 Ptychoglossus Boulenger, 1890
@@ -657,9 +675,11 @@
           <t>Taxinomie et phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille était considérée comme une sous-famille de la famille des Teiidae, sous le nom des Gymnophthalminae. Elle avait été divisée en cinq sous-familles, certaines divisées en tribus[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille était considérée comme une sous-famille de la famille des Teiidae, sous le nom des Gymnophthalminae. Elle avait été divisée en cinq sous-familles, certaines divisées en tribus.
 </t>
         </is>
       </c>
@@ -688,7 +708,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Merrem, 1820 : Versuch eines Systems der Amphibien I (Tentamen Systematis Amphibiorum). J. C. Krieger, Marburg, p. 1-191 (texte intégral).</t>
         </is>
